--- a/词汇/数据库导入/009. -techn (o)-技术，艺术.xlsx
+++ b/词汇/数据库导入/009. -techn (o)-技术，艺术.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106">
   <si>
     <t>Word</t>
   </si>
@@ -31,6 +31,1505 @@
   </si>
   <si>
     <t>Note</t>
+  </si>
+  <si>
+    <t>technic ['teknɪk]</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>technic</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技术；手法；工艺学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工艺的；专门的</t>
+    </r>
+  </si>
+  <si>
+    <t>【-techn-+ic名词或形容词后缀】</t>
+  </si>
+  <si>
+    <t>technique [tek'niːk]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技巧，技术；手法【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1339</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X7M4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【-ique==-ic名词后缀】</t>
+  </si>
+  <si>
+    <t>technics ['teknɪks]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工艺；工艺学；学术语【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>48006</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【technic+-s名词后缀，表复数==-ics学术名词后缀】</t>
+  </si>
+  <si>
+    <t>technology [tek'nɒlədʒɪ]</t>
+  </si>
+  <si>
+    <t>technology</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技术；工艺；术语【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>585</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B1M1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【techn技术+o+logy名词后缀】</t>
+  </si>
+  <si>
+    <t>technological [teknə'lɒdʒɪk(ə)l]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技术的；工艺的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3800</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【y去掉+ic+al形容词后缀】</t>
+  </si>
+  <si>
+    <t>technologically [,tɛknə'lɑdʒɪkli]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adv. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科技地；技术上地【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12837</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【ly副词后缀】</t>
+  </si>
+  <si>
+    <t>technologist [tek'nɒlədʒɪst]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技术专家；工艺学家【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20299</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【去y+ist名词后缀，表人】</t>
+  </si>
+  <si>
+    <t>technical ['teknɪk(ə)l]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工艺的，科技的；技术上的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2075</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>47684</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【technic+al形容词后缀】</t>
+  </si>
+  <si>
+    <t>technically ['teknɪklɪ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adv. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技术上；专门地；学术上；工艺上【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5923</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>technicality [,teknɪ'kælɪtɪ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学术性；专门性【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>18026</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【-ity名词后缀】</t>
+  </si>
+  <si>
+    <r>
+      <t>technicaliz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ['teknɪkəlaɪz]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>vt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使专门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技术化</t>
+    </r>
+  </si>
+  <si>
+    <t>【ize动词后缀】</t>
+  </si>
+  <si>
+    <t>technicalization [,teknɪkəlaɪ'zaɪʃən]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技术化</t>
+    </r>
+  </si>
+  <si>
+    <t>【ation复合名词后缀】</t>
+  </si>
+  <si>
+    <t>technician [tek'nɪʃ(ə)n]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技师，技术员【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4877</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【technic+i+an名词后缀，表人】</t>
+  </si>
+  <si>
+    <t>technolatry [tek'nɔlətri]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技术崇拜</t>
+    </r>
+  </si>
+  <si>
+    <t>【-techn-技术+o+-latry-崇拜，希腊词根】</t>
+  </si>
+  <si>
+    <t>electrotechnics [ɪ,lektrəʊ'teknɪks]</t>
+  </si>
+  <si>
+    <r>
+      <t>n. [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电工学；电工技术【词频】</t>
+    </r>
+  </si>
+  <si>
+    <t>【-electr-+o+technics】</t>
+  </si>
+  <si>
+    <t>biotechnology [,baɪə(ʊ)tek'nɒlədʒɪ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生物</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生物技术；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生物</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生物工艺学【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9710</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【bio生物】</t>
+  </si>
+  <si>
+    <t>polytechnic [,pɒlɪ'teknɪk]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>各种工艺的；综合技术的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工艺学校；理工专科学校【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>53676</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【poly-全+technic】</t>
+  </si>
+  <si>
+    <t>pyrotechnic [,paɪrə(ʊ)'teknɪk]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>烟火的；令人眼花缭乱的；出色的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>34963</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【来自希腊语pyr火，词源同fire,pyro-,火+technic技术，词源同techonology】</t>
+  </si>
+  <si>
+    <t>pyrotechnics [paɪrə(ʊ)'teknɪks]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>烟火制造术；烟火使用；各种烟火【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>26105</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【ics学术名词后缀】</t>
+  </si>
+  <si>
+    <t>zymotechnics [,zaɪmo'tɛknɪks]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发酵法；酿造法</t>
+    </r>
+  </si>
+  <si>
+    <t>【来自希腊语，zymo-发酵，词源同juice,yeast,-urg,做功，工作，词源同work,synergy,引申词义酿酒，酿造】</t>
+  </si>
+  <si>
+    <t>nanotechnology [,nænə(ʊ)tek'nɒlədʒɪ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>纳米技术【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>16661</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【nano-纳】</t>
+  </si>
+  <si>
+    <t>high-technology ['haitek'nɔlədʒi]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高科技【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>21057</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【合成词】</t>
+  </si>
+  <si>
+    <t>technocrat ['tɛknəkræt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技术统治论者；专家政治论者；技术统治【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>21621</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【techn技术，科技+o+crat统治都，管理者，词源同democrat】</t>
+  </si>
+  <si>
+    <t>technocratic[,teknəu'krætik]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技术专家治国论的；技术专家政治论的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>25646</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【ic形容词后缀】</t>
+  </si>
+  <si>
+    <t>techno ['teknəʊ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高科技舞曲【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>23152</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【-o名词后缀】</t>
+  </si>
+  <si>
+    <t>technicolor ['tɛknɪ,kʌlɚ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（美）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>印刷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>摄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>彩色印片法；鲜艳的色彩；彩色电影【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>25868</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【telchn-技术+i+color】</t>
+  </si>
+  <si>
+    <t>non-technical [nɒnˈtɛknɪkə]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>非技术性的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30567</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【non否定】</t>
+  </si>
+  <si>
+    <t>technology-based [tek'nɒlədʒɪ-beɪst]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以科技为本的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>33343</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>technology-driven [tek'nɒlədʒɪ'drɪvn]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技术驱动型【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>40782</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>technology-related [tek'nɒlədʒɪ' rɪ'leɪtɪd]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技术相关的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>43556</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>technologic [,tɛknə'lɑdʒɪk]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技术的；工艺的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>43990</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【technology+ic形容词后缀】</t>
+  </si>
+  <si>
+    <t>biotechnological ['baiəu,teknə'lɔdʒikəl]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生物技术的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>45352</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【-al形容词后缀】</t>
+  </si>
+  <si>
+    <t>technophile ['tɛknofaɪl]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技术爱好者；爱好技术的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>46556</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【-techn-技术，科技+o+-phile-爱好，词源同philosophy】</t>
+  </si>
+  <si>
+    <t>technetium [tek'niːʃɪəm]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>化学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>锝（放射性元素，位于元素周期表第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>43</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位）【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>47818</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+【金属元素，来自希腊语tekhnetos,人造的，人工的，来自thkhne,艺术，工艺，-ium,金属元素，因其为第一个由人为加工获取的化学元素而得名】</t>
   </si>
 </sst>
 </file>
@@ -43,7 +1542,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,10 +1551,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -66,8 +1608,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -82,13 +1625,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -97,15 +1633,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,25 +1662,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,7 +1671,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,15 +1686,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,19 +1707,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -209,6 +1719,84 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -218,19 +1806,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,157 +1902,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,26 +1931,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,16 +1991,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,160 +2033,175 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1026,15 +2551,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="37" customWidth="1"/>
+    <col min="1" max="1" width="37" customWidth="1"/>
+    <col min="2" max="2" width="5.375" customWidth="1"/>
+    <col min="3" max="4" width="37" customWidth="1"/>
+    <col min="5" max="5" width="38.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -1052,6 +2580,580 @@
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="25.5" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" ht="27" spans="1:5">
+      <c r="A17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" spans="1:5">
+      <c r="A19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" spans="1:5">
+      <c r="A24" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" spans="1:5">
+      <c r="A34" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" ht="67.5" spans="1:5">
+      <c r="A35" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
